--- a/docs/assets/disciplinas/LOT2026.xlsx
+++ b/docs/assets/disciplinas/LOT2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Levar aos estudantes conhecimentos básicos sobre a Ciência e Tecnologia dos Alimentos, abrangendo aspectos sobre as instituições envolvidas, bem como a habilitação dos profissionais nas respectivas áreas de concentração da C&amp;T de Alimentos; segurança alimentar / controle de qualidade; legislação vigente; matérias primas, técnicas de processamento; composição dos alimentos, novos produtos, características do setor alimentício e sua relação com o meio ambiente. Neste contexto, enfoca-se a evolução do desenvolvimento da C&amp;T dos Alimentos com vistas a atender a demanda por alimentos de qualidade.</t>
+    <t>3403572 - Ismael Maciel de Mancilha</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3403572 - Ismael Maciel de Mancilha</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Ciência e Tecnologia de Alimentos: conceitos e objetivos (consumo de alimentos, segurança alimentar, integridade e características nutritivas dos alimentos); Generalidades sobre o Setor Alimentício Legislação; Matérias-Primas; Técnicas de Processamento: Composição dos Alimentos; Novos produtos</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução: conceitos de C&amp;T de alimentos; áreas de concentração e respectivas atribuições dos profissionais; instituições envolvidas com o desenvolvimento da C&amp;T Alimentos; embalagens ativas/inteligentes Segurança Alimentar: fatores envolvidos na toxi-infecção alimentar; alimentos orgânicos e Boas Práticas de Fabricação (BPF); microbiologia de alimentos; higiene industrial; análise de perigo dos pontos críticos de controle - APPCC. Matérias-Primas: importância e características dos segmentos produtores de matérias primas de origem animal, vegetal, microbiana e aditivos/ingredientes. Processamento de Alimentos: objetivos e caracterização dos diferentes métodos de processamento dos alimentos abrangendo técnicas de conservação, transformação e melhoria da qualidade; usos e aplicações de aditivos/ingredientes em alimentos. Novos Produtos: fatores que devem ser considerados no lançamento de novos produtos alimentícios. Composição dos Alimentos: composição e significância dos diferentes compostos encontrados nos alimentos focando em suas propriedades e funções</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de provas escritas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>2 provas (P1 + P2), sendo que a NF = (P1 + P2) / 2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>POTTER, N.N., HOTCHKISS, J.H., Food Science - 5ª Ed. Chapman &amp; Hall, 1995.ARAÚJO, J.M.A., Química de Alimentos: Teoria e Prática. 3ª Ed. Editora UFV, 2004.FRAZIER, W.C., Microbiologia de los Alimentos. Editora Acribia, Zaragoza-Epanha, 1981.EVANGELISTA, J., Tecnologia de Alimentos, Livraria Atheneu, RJ. 1987.FENEMA, O.R.,Principles of Food Science: Part I: Food Chemistry. Marcel Dekker, Inc. NY-USA.1975.BENWART, G.J., Basic Food Microbiology. AVI Publishing Company Inc. USA,1970.</t>
   </si>
 </sst>
 </file>
@@ -486,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,34 +602,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -652,64 +646,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2026.xlsx
+++ b/docs/assets/disciplinas/LOT2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Levar aos estudantes conhecimentos básicos sobre a Ciência e Tecnologia dos Alimentos, abrangendo aspectos sobre as instituições envolvidas, bem como a habilitação dos profissionais nas respectivas áreas de concentração da C&amp;T de Alimentos; segurança alimentar / controle de qualidade; legislação vigente; matérias primas, técnicas de processamento; composição dos alimentos, novos produtos, características do setor alimentício e sua relação com o meio ambiente. Neste contexto, enfoca-se a evolução do desenvolvimento da C&amp;T dos Alimentos com vistas a atender a demanda por alimentos de qualidade.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3403572 - Ismael Maciel de Mancilha</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Ciência e Tecnologia de Alimentos: conceitos e objetivos (consumo de alimentos, segurança alimentar, integridade e características nutritivas dos alimentos); Generalidades sobre o Setor Alimentício Legislação; Matérias-Primas; Técnicas de Processamento: Composição dos Alimentos; Novos produtos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução: conceitos de C&amp;T de alimentos; áreas de concentração e respectivas atribuições dos profissionais; instituições envolvidas com o desenvolvimento da C&amp;T Alimentos; embalagens ativas/inteligentes Segurança Alimentar: fatores envolvidos na toxi-infecção alimentar; alimentos orgânicos e Boas Práticas de Fabricação (BPF); microbiologia de alimentos; higiene industrial; análise de perigo dos pontos críticos de controle - APPCC. Matérias-Primas: importância e características dos segmentos produtores de matérias primas de origem animal, vegetal, microbiana e aditivos/ingredientes. Processamento de Alimentos: objetivos e caracterização dos diferentes métodos de processamento dos alimentos abrangendo técnicas de conservação, transformação e melhoria da qualidade; usos e aplicações de aditivos/ingredientes em alimentos. Novos Produtos: fatores que devem ser considerados no lançamento de novos produtos alimentícios. Composição dos Alimentos: composição e significância dos diferentes compostos encontrados nos alimentos focando em suas propriedades e funções</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de provas escritas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas.</t>
+    <t>2 provas (P1 + P2), sendo que a NF = (P1 + P2) / 2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>2 provas (P1 + P2), sendo que a NF = (P1 + P2) / 2</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) calculada pela fórmula: MR = (NF + PR)/2</t>
+    <t>POTTER, N.N., HOTCHKISS, J.H., Food Science - 5ª Ed. Chapman &amp; Hall, 1995.ARAÚJO, J.M.A., Química de Alimentos: Teoria e Prática. 3ª Ed. Editora UFV, 2004.FRAZIER, W.C., Microbiologia de los Alimentos. Editora Acribia, Zaragoza-Epanha, 1981.EVANGELISTA, J., Tecnologia de Alimentos, Livraria Atheneu, RJ. 1987.FENEMA, O.R.,Principles of Food Science: Part I: Food Chemistry. Marcel Dekker, Inc. NY-USA.1975.BENWART, G.J., Basic Food Microbiology. AVI Publishing Company Inc. USA,1970.</t>
   </si>
 </sst>
 </file>
@@ -477,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -602,37 +611,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -646,53 +652,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
